--- a/User Roles.xlsx
+++ b/User Roles.xlsx
@@ -147,10 +147,10 @@
     <t>Tracking</t>
   </si>
   <si>
-    <t>bag rizal</t>
-  </si>
-  <si>
     <t>tinggal proses lock ke customer</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,14 +231,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +611,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -702,6 +703,7 @@
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -759,10 +761,10 @@
       <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
@@ -780,48 +782,49 @@
       <c r="J12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13" t="s">
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14" t="s">
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>42</v>
+      <c r="K14" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -845,7 +848,7 @@
       <c r="K15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
@@ -892,23 +895,23 @@
       <c r="I17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>42</v>
+      <c r="K18" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -929,7 +932,7 @@
       <c r="J19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -998,7 +1001,7 @@
       <c r="K22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
@@ -1182,31 +1185,34 @@
       <c r="J28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>42</v>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
